--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire/Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire/Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Pays_de_la_Loire</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Pays de la Loire est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Pays de la Loire, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 25 janvier 1993[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Pays de la Loire est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Pays de la Loire, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 25 janvier 1993.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Pays_de_la_Loire</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adiantum capillus-veneris, Cheveu de Vénus.
@@ -521,7 +535,7 @@
 Equisetum × moorei Newman, Prêle occidentale.
 Lycopodium clavatum L., Lycopode en massue.
 Ophioglossum lusitanicum L., Ophioglosse du Portugal.
-Oreopteris limbosperma (Bellardi ex All.) Holub, synonyme[2] de Thelypteris limbosperma (Bellardi ex All.) H.P.Fuchs, Fougère des montagnes.
+Oreopteris limbosperma (Bellardi ex All.) Holub, synonyme de Thelypteris limbosperma (Bellardi ex All.) H.P.Fuchs, Fougère des montagnes.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Pays_de_la_Loire</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium ericetorum Thore, Ail des Landes.
 Anacamptis palustris var. palustris synonyme de Orchis laxiflora subsp. palustris (Jacq.) Bonnier &amp; Layens, Orchis des marais.
 Anthericum liliago L., Phalangère à fleurs de lis.
@@ -603,7 +623,43 @@
 Trichophorum cespitosum subsp. germanicum (Palla) Hegi, synonyme de Scirpus cespitosus subsp. germanicus (Palla) Brodd., Scirpe cespiteux.
 Triglochin palustre L., Troscart des marais.
 Zostera noltii Hornem., Zostère naine.
-Dictotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Pays_de_la_Loire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Pays_de_la_Loire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dictotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillea maritima (L.) Ehrend. &amp; Y.P.Guo, synonyme de Otanthus maritimus (L.) Hoffmans. &amp; Link, Diotis blanc.
 Aconitum napellus subsp. lusitanicum Rouy synonyme de Aconitum napellus subsp. neomontanum (Wulfen) Gáyer, Aconit du Portugal.
 Adenocarpus complicatus (L.) J.Gay, Adénocarpe.
@@ -645,7 +701,7 @@
 Lathyrus pannonicus subsp. asphodeloides (Gouan) Bässler, Gesse blanche.
 Libanotis pyrenaica var. libanotis (L.) Reduron, synonyme de Seseli libanotis subsp. libanotis, Libanotis.
 Limonium auriculiursifolium (Pourr.) Druce, Statice à feuilles de Lychnis.
-Limonium ovalifolium (Poir.) Kuntze[3], Statice à feuilles ovales.
+Limonium ovalifolium (Poir.) Kuntze, Statice à feuilles ovales.
 Linaria arenaria DC., Linaire des sables.
 Lupinus angustifolius subsp. reticulatus (Desv.) Arcang., Lupin à feuilles étroites.
 Lythrum borysthenicum (Schrank) Litv., Pourpier d'eau du Dniepr.
